--- a/ETL_cours/APIREST/exercices/api_rapport.xlsx
+++ b/ETL_cours/APIREST/exercices/api_rapport.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>status</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>status</t>
         </is>
       </c>
     </row>
